--- a/example/out/xls/i18n.xlsx
+++ b/example/out/xls/i18n.xlsx
@@ -14,16 +14,16 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="39">
   <si>
-    <t>Key</t>
+    <t>Key (DO NOT EDIT)</t>
   </si>
   <si>
     <t>Translation</t>
   </si>
   <si>
-    <t>Comment</t>
-  </si>
-  <si>
-    <t>File (do not edit)</t>
+    <t>Comment (DO NOT EDIT)</t>
+  </si>
+  <si>
+    <t>File (DO NOT EDIT)</t>
   </si>
   <si>
     <t>i18N アプリケーションの例</t>
@@ -508,8 +508,8 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
@@ -803,8 +803,8 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>

--- a/example/out/xls/i18n.xlsx
+++ b/example/out/xls/i18n.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="60">
   <si>
     <t>Key (DO NOT EDIT)</t>
   </si>
@@ -35,6 +35,9 @@
     <t>src/app/components/Main/Main.vue</t>
   </si>
   <si>
+    <t>こんにちは世界</t>
+  </si>
+  <si>
     <t>おはよう{name}さん</t>
   </si>
   <si>
@@ -86,6 +89,12 @@
     <t>src/lib/composables/nestedComposable/useMore.ts</t>
   </si>
   <si>
+    <t>名前：　{lastName} {firstName}。誕生日：　{birthday}。ポイント：　{points}</t>
+  </si>
+  <si>
+    <t>src/lib/components/UserCard/UserCard.vue</t>
+  </si>
+  <si>
     <t>ページタイトル</t>
   </si>
   <si>
@@ -107,28 +116,82 @@
     <t>カウンター</t>
   </si>
   <si>
+    <t>Counter label</t>
+  </si>
+  <si>
     <t>カウントアップ</t>
   </si>
   <si>
+    <t>ユーザーを追加する</t>
+  </si>
+  <si>
+    <t>名前</t>
+  </si>
+  <si>
     <t>奇数・偶数</t>
   </si>
   <si>
+    <t>Counter odd/even label</t>
+  </si>
+  <si>
+    <t>苗字</t>
+  </si>
+  <si>
+    <t>誕生日</t>
+  </si>
+  <si>
     <t>i18N application example</t>
   </si>
   <si>
+    <t>Hello, World</t>
+  </si>
+  <si>
     <t>Good morning, {name}</t>
   </si>
   <si>
+    <t>Good day, {name}</t>
+  </si>
+  <si>
+    <t>Good evening, {name}</t>
+  </si>
+  <si>
     <t>even</t>
   </si>
   <si>
     <t>odd</t>
   </si>
   <si>
+    <t>See more</t>
+  </si>
+  <si>
+    <t>Name: {lastName} {firstName}. Birthday: {birthday}. Points: {points}</t>
+  </si>
+  <si>
+    <t>Page Title</t>
+  </si>
+  <si>
+    <t>Welcome to the i18n sample application</t>
+  </si>
+  <si>
+    <t>Counter</t>
+  </si>
+  <si>
     <t>Count Application</t>
   </si>
   <si>
+    <t>Add user</t>
+  </si>
+  <si>
+    <t>First Name</t>
+  </si>
+  <si>
     <t>Odd or Even</t>
+  </si>
+  <si>
+    <t>Family Name</t>
+  </si>
+  <si>
+    <t>Birthday</t>
   </si>
 </sst>
 </file>
@@ -505,7 +568,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -554,17 +617,21 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="D3" t="s">
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4"/>
-      <c r="B4"/>
-      <c r="C4" t="s">
-        <v>8</v>
       </c>
       <c r="D4" t="s">
         <v>10</v>
@@ -574,29 +641,29 @@
       <c r="A5"/>
       <c r="B5"/>
       <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
         <v>11</v>
       </c>
-      <c r="D5" t="s">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6"/>
+      <c r="B6"/>
+      <c r="C6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="D6" t="s">
         <v>13</v>
       </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7"/>
-      <c r="B7"/>
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
       <c r="C7" t="s">
         <v>5</v>
       </c>
@@ -605,22 +672,22 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" t="s">
-        <v>5</v>
-      </c>
+      <c r="A8"/>
+      <c r="B8"/>
       <c r="C8" t="s">
         <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9"/>
-      <c r="B9"/>
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
       <c r="C9" t="s">
         <v>5</v>
       </c>
@@ -629,124 +696,120 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" t="s">
-        <v>5</v>
-      </c>
+      <c r="A10"/>
+      <c r="B10"/>
       <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>16</v>
       </c>
-      <c r="D10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11"/>
-      <c r="B11"/>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
       <c r="C11" t="s">
         <v>17</v>
       </c>
       <c r="D11" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12"/>
       <c r="B12"/>
       <c r="C12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" t="s">
         <v>19</v>
       </c>
-      <c r="D12" t="s">
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13"/>
+      <c r="B13"/>
+      <c r="C13" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="D13" t="s">
         <v>21</v>
       </c>
-      <c r="B13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14"/>
-      <c r="B14"/>
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
       <c r="C14" t="s">
         <v>17</v>
       </c>
       <c r="D14" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15"/>
       <c r="B15"/>
       <c r="C15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" t="s">
         <v>19</v>
       </c>
-      <c r="D15" t="s">
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16"/>
+      <c r="B16"/>
+      <c r="C16" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" t="s">
-        <v>5</v>
-      </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" t="s">
         <v>24</v>
-      </c>
-      <c r="B17" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B18" t="s">
         <v>5</v>
       </c>
       <c r="C18" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="D18" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B19" t="s">
         <v>5</v>
       </c>
       <c r="C19" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="D19" t="s">
         <v>29</v>
@@ -754,44 +817,128 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" t="s">
         <v>31</v>
       </c>
-      <c r="B20" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" t="s">
-        <v>5</v>
-      </c>
       <c r="D20" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B21" t="s">
         <v>5</v>
       </c>
       <c r="C21" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="D21" t="s">
-        <v>29</v>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" t="s">
+        <v>39</v>
+      </c>
+      <c r="D25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>41</v>
+      </c>
+      <c r="B27" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="B14:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
@@ -800,7 +947,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -832,7 +979,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -846,20 +993,24 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="D3" t="s">
+      <c r="B4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4"/>
-      <c r="B4"/>
-      <c r="C4" t="s">
-        <v>8</v>
       </c>
       <c r="D4" t="s">
         <v>10</v>
@@ -869,29 +1020,29 @@
       <c r="A5"/>
       <c r="B5"/>
       <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
         <v>11</v>
       </c>
-      <c r="D5" t="s">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6"/>
+      <c r="B6"/>
+      <c r="C6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="D6" t="s">
         <v>13</v>
       </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7"/>
-      <c r="B7"/>
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>45</v>
+      </c>
       <c r="C7" t="s">
         <v>5</v>
       </c>
@@ -900,22 +1051,22 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" t="s">
-        <v>5</v>
-      </c>
+      <c r="A8"/>
+      <c r="B8"/>
       <c r="C8" t="s">
         <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9"/>
-      <c r="B9"/>
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
+        <v>46</v>
+      </c>
       <c r="C9" t="s">
         <v>5</v>
       </c>
@@ -924,124 +1075,120 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" t="s">
-        <v>35</v>
-      </c>
+      <c r="A10"/>
+      <c r="B10"/>
       <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>16</v>
       </c>
-      <c r="D10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11"/>
-      <c r="B11"/>
+      <c r="B11" t="s">
+        <v>47</v>
+      </c>
       <c r="C11" t="s">
         <v>17</v>
       </c>
       <c r="D11" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12"/>
       <c r="B12"/>
       <c r="C12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" t="s">
         <v>19</v>
       </c>
-      <c r="D12" t="s">
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13"/>
+      <c r="B13"/>
+      <c r="C13" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="D13" t="s">
         <v>21</v>
       </c>
-      <c r="B13" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14"/>
-      <c r="B14"/>
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>48</v>
+      </c>
       <c r="C14" t="s">
         <v>17</v>
       </c>
       <c r="D14" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15"/>
       <c r="B15"/>
       <c r="C15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" t="s">
         <v>19</v>
       </c>
-      <c r="D15" t="s">
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16"/>
+      <c r="B16"/>
+      <c r="C16" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" t="s">
-        <v>5</v>
-      </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" t="s">
         <v>24</v>
-      </c>
-      <c r="B17" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B18" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="C18" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="D18" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="C19" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="D19" t="s">
         <v>29</v>
@@ -1049,44 +1196,128 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" t="s">
         <v>31</v>
       </c>
-      <c r="B20" t="s">
-        <v>37</v>
-      </c>
-      <c r="C20" t="s">
-        <v>5</v>
-      </c>
       <c r="D20" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B21" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>38</v>
       </c>
-      <c r="C21" t="s">
-        <v>5</v>
-      </c>
-      <c r="D21" t="s">
-        <v>29</v>
+      <c r="B25" t="s">
+        <v>57</v>
+      </c>
+      <c r="C25" t="s">
+        <v>39</v>
+      </c>
+      <c r="D25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>41</v>
+      </c>
+      <c r="B27" t="s">
+        <v>59</v>
+      </c>
+      <c r="C27" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="B14:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
